--- a/DemoProject/src/test/resources/TestData.xlsx
+++ b/DemoProject/src/test/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\MyfirstRepo\DemoProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727EAA3-DC20-455E-8D2D-F9902A34EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA64C6E-B017-4D06-907F-7FA97E369730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="225" windowWidth="12885" windowHeight="10695" xr2:uid="{14C33F94-55FF-46E9-8091-D0902ADF835A}"/>
+    <workbookView xWindow="4710" yWindow="225" windowWidth="12885" windowHeight="10695" activeTab="2" xr2:uid="{14C33F94-55FF-46E9-8091-D0902ADF835A}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="managenewspage" sheetId="2" r:id="rId2"/>
+    <sheet name="adminuser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -53,6 +54,42 @@
   </si>
   <si>
     <t>Adminanu</t>
+  </si>
+  <si>
+    <t>Usertype</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>DeliveryBoy</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>Dikku</t>
+  </si>
+  <si>
+    <t>dikku</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>Sree</t>
+  </si>
+  <si>
+    <t>sree</t>
   </si>
 </sst>
 </file>
@@ -406,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543C1FBF-7626-488B-974E-3F9A642A201A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -487,4 +524,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C23EEE-2485-405F-BD5C-D8CFBB8C09A1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>